--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1556.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1556.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.153329366468978</v>
+        <v>1.388616442680359</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.664647579193115</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>6.992143154144287</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>1.911772489547729</v>
       </c>
       <c r="E1">
-        <v>1.087336534150412</v>
+        <v>0.8650373220443726</v>
       </c>
     </row>
   </sheetData>
